--- a/ballots/2012 Sept Draft/FHIR_201208_DFC_Combined_Comments.xlsx
+++ b/ballots/2012 Sept Draft/FHIR_201208_DFC_Combined_Comments.xlsx
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$R$121</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="447">
   <si>
     <t>Master Id</t>
   </si>
@@ -1561,6 +1561,18 @@
   </si>
   <si>
     <t>discussion needed at Phoenix</t>
+  </si>
+  <si>
+    <t>Each of the parts has dependencies on other parts.  Separating into multiple specifications would result in extreme difficulty managing varying versions of the different parts.  This has caused extensive grief with HL7 v3.  There is very little benefit to splitting the specification and considerable benefit to implementers in keeping it as one cohesive specification that is versioned as a whole. We've tried both approaches with v2 and v3 now, and I know which works</t>
+  </si>
+  <si>
+    <t>Not persuasive</t>
+  </si>
+  <si>
+    <t>OID maintenance is rarely used. The convenience of having one place to look for OIDs completely justifies the extra work involved in registering OIDs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> There are two ways to look at FHIR.  One can look at it as a means of enhancing/fixing v3, in which case the energy spent on FHIR is doing exactly what the voter desires.  Another is to look at FHIR as an alternative to v3 because there are certain fundamental implementation impediments of v3 such as complex model-driven wire format and non-backward compatible versions that cannot be changed without making v3 unrecognizable.  In short, either FHIR is enhancing v3 or FHIR is necessary because v3 can't be sufficiently enhanced.</t>
   </si>
 </sst>
 </file>
@@ -2450,12 +2462,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:S121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K45" sqref="K45"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2532,10 +2543,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="375" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
+    <row r="2" spans="1:18" ht="375" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>18</v>
       </c>
@@ -2567,7 +2575,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -2605,7 +2613,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:18" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -2637,7 +2645,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:18" ht="225" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -2672,7 +2680,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="225" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -2707,7 +2715,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -2739,7 +2747,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -2767,8 +2775,11 @@
       <c r="L8" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M8" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>9</v>
       </c>
@@ -2796,8 +2807,11 @@
       <c r="L9" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M9" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -2829,7 +2843,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:18" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -2861,7 +2875,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:18" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>12</v>
       </c>
@@ -2893,7 +2907,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="285" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" ht="285" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -2931,7 +2945,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -2966,7 +2980,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="150" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -3057,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:18" ht="180" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -3095,7 +3109,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="90" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -3212,7 +3226,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="21" spans="1:18" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -3253,7 +3267,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="1:18" ht="225" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -3294,7 +3308,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="165" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" ht="285" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -3328,8 +3342,14 @@
       <c r="L23" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M23" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -3370,7 +3390,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:18" ht="285" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" ht="285" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -3408,7 +3428,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:18" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -3446,7 +3466,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -3496,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -3572,7 +3592,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="30" spans="1:18" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -3660,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -3698,7 +3718,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -3736,7 +3756,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -3774,7 +3794,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>35</v>
       </c>
@@ -3813,7 +3833,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>36</v>
       </c>
@@ -3902,7 +3922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>38</v>
       </c>
@@ -3990,7 +4010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="90" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>40</v>
       </c>
@@ -4034,7 +4054,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="41" spans="1:18" ht="225" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" ht="225" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>41</v>
       </c>
@@ -4072,7 +4092,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="42" spans="1:18" ht="165" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" ht="165" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>42</v>
       </c>
@@ -4125,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="180" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" ht="180" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43</v>
       </c>
@@ -4158,6 +4178,12 @@
       </c>
       <c r="L43" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="M43" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="44" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -4236,7 +4262,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="46" spans="1:18" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>46</v>
       </c>
@@ -4274,7 +4300,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="47" spans="1:18" ht="150" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>47</v>
       </c>
@@ -4318,7 +4344,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="48" spans="1:18" ht="210" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" ht="315" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>48</v>
       </c>
@@ -4340,8 +4366,14 @@
       <c r="L48" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="49" spans="1:18" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M48" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>49</v>
       </c>
@@ -4370,7 +4402,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>50</v>
       </c>
@@ -4399,7 +4431,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="51" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>51</v>
       </c>
@@ -4428,7 +4460,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="52" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>52</v>
       </c>
@@ -4457,7 +4489,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="53" spans="1:18" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>53</v>
       </c>
@@ -4486,7 +4518,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="54" spans="1:18" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>54</v>
       </c>
@@ -4515,7 +4547,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="55" spans="1:18" ht="240" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" ht="240" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>55</v>
       </c>
@@ -4559,7 +4591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="409.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" ht="409.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>56</v>
       </c>
@@ -4591,7 +4623,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="135" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" ht="135" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>59</v>
       </c>
@@ -4626,7 +4658,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="58" spans="1:18" ht="120" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>60</v>
       </c>
@@ -4661,7 +4693,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>61</v>
       </c>
@@ -4693,7 +4725,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="60" spans="1:18" ht="90" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>62</v>
       </c>
@@ -4728,7 +4760,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="61" spans="1:18" ht="150" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>63</v>
       </c>
@@ -4763,7 +4795,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="62" spans="1:18" ht="315" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" ht="315" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>64</v>
       </c>
@@ -4798,7 +4830,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>65</v>
       </c>
@@ -4833,7 +4865,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="64" spans="1:18" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>66</v>
       </c>
@@ -4865,7 +4897,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="65" spans="1:19" ht="240" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" ht="240" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>67</v>
       </c>
@@ -4900,7 +4932,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="66" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>66</v>
       </c>
@@ -4926,7 +4958,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="67" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>67</v>
       </c>
@@ -4952,7 +4984,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="68" spans="1:19" ht="75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>68</v>
       </c>
@@ -4978,7 +5010,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="69" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>69</v>
       </c>
@@ -5001,7 +5033,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="70" spans="1:19" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>70</v>
       </c>
@@ -5027,7 +5059,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="71" spans="1:19" ht="150" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>71</v>
       </c>
@@ -5053,7 +5085,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="72" spans="1:19" ht="29.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>72</v>
       </c>
@@ -5094,7 +5126,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>73</v>
       </c>
@@ -5143,7 +5175,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="75" spans="1:19" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>75</v>
       </c>
@@ -5169,7 +5201,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>76</v>
       </c>
@@ -5195,7 +5227,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="77" spans="1:19" ht="27.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>77</v>
       </c>
@@ -5236,7 +5268,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>78</v>
       </c>
@@ -5262,7 +5294,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="79" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>79</v>
       </c>
@@ -5288,7 +5320,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="80" spans="1:19" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>80</v>
       </c>
@@ -5307,8 +5339,11 @@
       <c r="L80" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M80" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>81</v>
       </c>
@@ -5331,7 +5366,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:14" ht="30" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>82</v>
       </c>
@@ -5357,7 +5392,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>83</v>
       </c>
@@ -5380,7 +5415,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>84</v>
       </c>
@@ -5403,7 +5438,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="85" spans="1:14" ht="105" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>85</v>
       </c>
@@ -5429,7 +5464,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>86</v>
       </c>
@@ -5452,7 +5487,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="87" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>87</v>
       </c>
@@ -5478,7 +5513,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="88" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>88</v>
       </c>
@@ -5501,7 +5536,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="89" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>89</v>
       </c>
@@ -5524,7 +5559,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>90</v>
       </c>
@@ -5544,7 +5579,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="91" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>91</v>
       </c>
@@ -5564,7 +5599,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>92</v>
       </c>
@@ -5584,7 +5619,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="93" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>93</v>
       </c>
@@ -5604,7 +5639,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="94" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>94</v>
       </c>
@@ -5624,7 +5659,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="95" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>95</v>
       </c>
@@ -5644,7 +5679,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="96" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>96</v>
       </c>
@@ -5664,7 +5699,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="97" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>97</v>
       </c>
@@ -5684,7 +5719,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>98</v>
       </c>
@@ -5704,7 +5739,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>99</v>
       </c>
@@ -5724,7 +5759,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="100" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>100</v>
       </c>
@@ -5744,7 +5779,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>101</v>
       </c>
@@ -5764,7 +5799,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>102</v>
       </c>
@@ -5784,7 +5819,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="103" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>103</v>
       </c>
@@ -5804,7 +5839,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>104</v>
       </c>
@@ -5821,7 +5856,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>105</v>
       </c>
@@ -5841,7 +5876,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="106" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>106</v>
       </c>
@@ -5870,7 +5905,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>107</v>
       </c>
@@ -5899,7 +5934,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>108</v>
       </c>
@@ -5925,7 +5960,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="109" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>109</v>
       </c>
@@ -5954,7 +5989,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>110</v>
       </c>
@@ -5977,7 +6012,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>111</v>
       </c>
@@ -6006,7 +6041,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>112</v>
       </c>
@@ -6029,7 +6064,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="113" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>113</v>
       </c>
@@ -6052,7 +6087,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="114" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>114</v>
       </c>
@@ -6107,7 +6142,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="116" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>116</v>
       </c>
@@ -6133,7 +6168,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="117" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>117</v>
       </c>
@@ -6191,7 +6226,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="119" spans="1:14" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>119</v>
       </c>
@@ -6276,17 +6311,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R121">
-    <filterColumn colId="12">
-      <filters>
-        <filter val="no change"/>
-        <filter val="no changed"/>
-        <filter val="not an issue"/>
-        <filter val="Not Persausive with Mod"/>
-        <filter val="Not-Persausive"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:R121"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
